--- a/files/30_11_2022/route_number_2.xlsx
+++ b/files/30_11_2022/route_number_2.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,1655 +435,1191 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
-        <v>634895</v>
+        <v>634880</v>
       </c>
       <c r="B2">
-        <v>693234</v>
+        <v>608008</v>
       </c>
       <c r="C2">
-        <v>38.02320895</v>
+        <v>37.94068765</v>
       </c>
       <c r="D2">
-        <v>55.72747373</v>
+        <v>56.16234198</v>
       </c>
       <c r="E2">
-        <v>38.03822676</v>
+        <v>37.97686791</v>
       </c>
       <c r="F2">
-        <v>55.72518317</v>
+        <v>56.25283424</v>
       </c>
       <c r="G2">
-        <v>11.92</v>
+        <v>32.84</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>1.92</v>
+        <v>22.84</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>693234</v>
+        <v>608008</v>
       </c>
       <c r="B3">
-        <v>627725</v>
+        <v>619166</v>
       </c>
       <c r="C3">
-        <v>38.03822676</v>
+        <v>37.97686791</v>
       </c>
       <c r="D3">
-        <v>55.72518317</v>
+        <v>56.25283424</v>
       </c>
       <c r="E3">
-        <v>38.00930795</v>
+        <v>37.97993804</v>
       </c>
       <c r="F3">
-        <v>55.74150173</v>
+        <v>56.27414122</v>
       </c>
       <c r="G3">
-        <v>13.86</v>
+        <v>15.28</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>3.859999999999999</v>
+        <v>5.280000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
-        <v>627725</v>
+        <v>619166</v>
       </c>
       <c r="B4">
-        <v>680328</v>
+        <v>619611</v>
       </c>
       <c r="C4">
-        <v>38.00930795</v>
+        <v>37.97993804</v>
       </c>
       <c r="D4">
-        <v>55.74150173</v>
+        <v>56.27414122</v>
       </c>
       <c r="E4">
-        <v>38.00567722</v>
+        <v>37.93526495</v>
       </c>
       <c r="F4">
-        <v>55.74234263</v>
+        <v>56.30809247</v>
       </c>
       <c r="G4">
-        <v>11.1</v>
+        <v>16.5</v>
       </c>
       <c r="H4">
         <v>10</v>
       </c>
       <c r="I4">
-        <v>1.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>680328</v>
+        <v>619611</v>
       </c>
       <c r="B5">
-        <v>645387</v>
+        <v>619708</v>
       </c>
       <c r="C5">
-        <v>38.00567722</v>
+        <v>37.93526495</v>
       </c>
       <c r="D5">
-        <v>55.74234263</v>
+        <v>56.30809247</v>
       </c>
       <c r="E5">
-        <v>38.01573727</v>
+        <v>38.12060791</v>
       </c>
       <c r="F5">
-        <v>55.74232073</v>
+        <v>56.35046094</v>
       </c>
       <c r="G5">
-        <v>11.23</v>
+        <v>24.71</v>
       </c>
       <c r="H5">
         <v>10</v>
       </c>
       <c r="I5">
-        <v>1.23</v>
+        <v>14.71</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>645387</v>
+        <v>619708</v>
       </c>
       <c r="B6">
-        <v>635724</v>
+        <v>623320</v>
       </c>
       <c r="C6">
-        <v>38.01573727</v>
+        <v>38.12060791</v>
       </c>
       <c r="D6">
-        <v>55.74232073</v>
+        <v>56.35046094</v>
       </c>
       <c r="E6">
-        <v>38.01862784</v>
+        <v>38.13684764</v>
       </c>
       <c r="F6">
-        <v>55.74157181</v>
+        <v>56.33891181</v>
       </c>
       <c r="G6">
-        <v>11.68</v>
+        <v>14.11</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>1.68</v>
+        <v>4.109999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>635724</v>
+        <v>623320</v>
       </c>
       <c r="B7">
-        <v>406542</v>
+        <v>659590</v>
       </c>
       <c r="C7">
-        <v>38.01862784</v>
+        <v>38.13684764</v>
       </c>
       <c r="D7">
-        <v>55.74157181</v>
+        <v>56.33891181</v>
       </c>
       <c r="E7">
-        <v>38.0002596</v>
+        <v>38.14266819</v>
       </c>
       <c r="F7">
-        <v>55.74632373</v>
+        <v>56.33134378</v>
       </c>
       <c r="G7">
-        <v>13.08</v>
+        <v>13.11</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>3.08</v>
+        <v>3.109999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>406542</v>
+        <v>659590</v>
       </c>
       <c r="B8">
-        <v>661116</v>
+        <v>667106</v>
       </c>
       <c r="C8">
-        <v>38.0002596</v>
+        <v>38.14266819</v>
       </c>
       <c r="D8">
-        <v>55.74632373</v>
+        <v>56.33134378</v>
       </c>
       <c r="E8">
-        <v>37.99668581</v>
+        <v>38.1591269</v>
       </c>
       <c r="F8">
-        <v>55.74156305</v>
+        <v>56.33078319</v>
       </c>
       <c r="G8">
-        <v>11.87</v>
+        <v>14.26</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>1.870000000000001</v>
+        <v>4.26</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
-        <v>661116</v>
+        <v>667106</v>
       </c>
       <c r="B9">
-        <v>609943</v>
+        <v>644568</v>
       </c>
       <c r="C9">
-        <v>37.99668581</v>
+        <v>38.1591269</v>
       </c>
       <c r="D9">
-        <v>55.74156305</v>
+        <v>56.33078319</v>
       </c>
       <c r="E9">
-        <v>38.00198956</v>
+        <v>38.13499943</v>
       </c>
       <c r="F9">
-        <v>55.74240394</v>
+        <v>56.31553326</v>
       </c>
       <c r="G9">
-        <v>14.33</v>
+        <v>15</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>4.33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>609943</v>
+        <v>644568</v>
       </c>
       <c r="B10">
-        <v>682273</v>
+        <v>698945</v>
       </c>
       <c r="C10">
-        <v>38.00198956</v>
+        <v>38.13499943</v>
       </c>
       <c r="D10">
-        <v>55.74240394</v>
+        <v>56.31553326</v>
       </c>
       <c r="E10">
-        <v>38.02618711</v>
+        <v>38.13714984</v>
       </c>
       <c r="F10">
-        <v>55.74968291</v>
+        <v>56.31355366</v>
       </c>
       <c r="G10">
-        <v>13.7</v>
+        <v>11.24</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>3.699999999999999</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>682273</v>
+        <v>698945</v>
       </c>
       <c r="B11">
-        <v>609803</v>
+        <v>690262</v>
       </c>
       <c r="C11">
-        <v>38.02618711</v>
+        <v>38.13714984</v>
       </c>
       <c r="D11">
-        <v>55.74968291</v>
+        <v>56.31355366</v>
       </c>
       <c r="E11">
-        <v>37.97532627</v>
+        <v>38.13449577</v>
       </c>
       <c r="F11">
-        <v>55.74756317</v>
+        <v>56.30199139</v>
       </c>
       <c r="G11">
-        <v>16.8</v>
+        <v>12.63</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>6.800000000000001</v>
+        <v>2.629999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>609803</v>
+        <v>690262</v>
       </c>
       <c r="B12">
-        <v>636402</v>
+        <v>687623</v>
       </c>
       <c r="C12">
-        <v>37.97532627</v>
+        <v>38.13449577</v>
       </c>
       <c r="D12">
-        <v>55.74756317</v>
+        <v>56.30199139</v>
       </c>
       <c r="E12">
-        <v>37.97225614</v>
+        <v>38.13232784</v>
       </c>
       <c r="F12">
-        <v>55.74702009</v>
+        <v>56.29633289</v>
       </c>
       <c r="G12">
-        <v>11.13</v>
+        <v>11.91</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
       <c r="I12">
-        <v>1.129999999999999</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
-        <v>636402</v>
+        <v>687623</v>
       </c>
       <c r="B13">
-        <v>635299</v>
+        <v>608018</v>
       </c>
       <c r="C13">
-        <v>37.97225614</v>
+        <v>38.13232784</v>
       </c>
       <c r="D13">
-        <v>55.74702009</v>
+        <v>56.29633289</v>
       </c>
       <c r="E13">
-        <v>37.91847846</v>
+        <v>38.11969805</v>
       </c>
       <c r="F13">
-        <v>55.74251343</v>
+        <v>56.29516672</v>
       </c>
       <c r="G13">
-        <v>13.47</v>
+        <v>11.66</v>
       </c>
       <c r="H13">
         <v>10</v>
       </c>
       <c r="I13">
-        <v>3.470000000000001</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
-        <v>635299</v>
+        <v>608018</v>
       </c>
       <c r="B14">
-        <v>634977</v>
+        <v>682758</v>
       </c>
       <c r="C14">
-        <v>37.91847846</v>
+        <v>38.11969805</v>
       </c>
       <c r="D14">
-        <v>55.74251343</v>
+        <v>56.29516672</v>
       </c>
       <c r="E14">
-        <v>37.95258715</v>
+        <v>38.12003856</v>
       </c>
       <c r="F14">
-        <v>55.75367277</v>
+        <v>56.29288173</v>
       </c>
       <c r="G14">
-        <v>12.08</v>
+        <v>11.13</v>
       </c>
       <c r="H14">
         <v>10</v>
       </c>
       <c r="I14">
-        <v>2.08</v>
+        <v>1.129999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
-        <v>634977</v>
+        <v>682758</v>
       </c>
       <c r="B15">
-        <v>640035</v>
+        <v>619160</v>
       </c>
       <c r="C15">
-        <v>37.95258715</v>
+        <v>38.12003856</v>
       </c>
       <c r="D15">
-        <v>55.75367277</v>
+        <v>56.29288173</v>
       </c>
       <c r="E15">
-        <v>37.92194714</v>
+        <v>38.14564635</v>
       </c>
       <c r="F15">
-        <v>55.75072089</v>
+        <v>56.30207022</v>
       </c>
       <c r="G15">
-        <v>15.46</v>
+        <v>15.84</v>
       </c>
       <c r="H15">
         <v>10</v>
       </c>
       <c r="I15">
-        <v>5.460000000000001</v>
+        <v>5.84</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
-        <v>640035</v>
+        <v>619160</v>
       </c>
       <c r="B16">
-        <v>606103</v>
+        <v>661920</v>
       </c>
       <c r="C16">
-        <v>37.92194714</v>
+        <v>38.14564635</v>
       </c>
       <c r="D16">
-        <v>55.75072089</v>
+        <v>56.30207022</v>
       </c>
       <c r="E16">
-        <v>37.92706695</v>
+        <v>38.14052654</v>
       </c>
       <c r="F16">
-        <v>55.76979425</v>
+        <v>56.30197387</v>
       </c>
       <c r="G16">
-        <v>13.22</v>
+        <v>11.58</v>
       </c>
       <c r="H16">
         <v>10</v>
       </c>
       <c r="I16">
-        <v>3.220000000000001</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17">
-        <v>606103</v>
+        <v>661920</v>
       </c>
       <c r="B17">
-        <v>627716</v>
+        <v>683750</v>
       </c>
       <c r="C17">
-        <v>37.92706695</v>
+        <v>38.14052654</v>
       </c>
       <c r="D17">
-        <v>55.76979425</v>
+        <v>56.30197387</v>
       </c>
       <c r="E17">
-        <v>37.89953778</v>
+        <v>38.15046834</v>
       </c>
       <c r="F17">
-        <v>55.77437677</v>
+        <v>56.29135323</v>
       </c>
       <c r="G17">
-        <v>13.76</v>
+        <v>14.17</v>
       </c>
       <c r="H17">
         <v>10</v>
       </c>
       <c r="I17">
-        <v>3.76</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18">
-        <v>627716</v>
+        <v>683750</v>
       </c>
       <c r="B18">
-        <v>634865</v>
+        <v>690258</v>
       </c>
       <c r="C18">
-        <v>37.89953778</v>
+        <v>38.15046834</v>
       </c>
       <c r="D18">
-        <v>55.77437677</v>
+        <v>56.29135323</v>
       </c>
       <c r="E18">
-        <v>37.89610722</v>
+        <v>38.17652724</v>
       </c>
       <c r="F18">
-        <v>55.76111379</v>
+        <v>56.29575039</v>
       </c>
       <c r="G18">
-        <v>14.34</v>
+        <v>14.6</v>
       </c>
       <c r="H18">
         <v>10</v>
       </c>
       <c r="I18">
-        <v>4.34</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19">
-        <v>634865</v>
+        <v>690258</v>
       </c>
       <c r="B19">
-        <v>641538</v>
+        <v>608007</v>
       </c>
       <c r="C19">
-        <v>37.89610722</v>
+        <v>38.17652724</v>
       </c>
       <c r="D19">
-        <v>55.76111379</v>
+        <v>56.29575039</v>
       </c>
       <c r="E19">
-        <v>37.8557663</v>
+        <v>38.17637833</v>
       </c>
       <c r="F19">
-        <v>55.74700257</v>
+        <v>56.29063059</v>
       </c>
       <c r="G19">
-        <v>15.59</v>
+        <v>12.54</v>
       </c>
       <c r="H19">
         <v>10</v>
       </c>
       <c r="I19">
-        <v>5.59</v>
+        <v>2.539999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20">
-        <v>641538</v>
+        <v>608007</v>
       </c>
       <c r="B20">
-        <v>635507</v>
+        <v>634991</v>
       </c>
       <c r="C20">
-        <v>37.8557663</v>
+        <v>38.17637833</v>
       </c>
       <c r="D20">
-        <v>55.74700257</v>
+        <v>56.29063059</v>
       </c>
       <c r="E20">
-        <v>37.87191844</v>
+        <v>38.12652919</v>
       </c>
       <c r="F20">
-        <v>55.75161434</v>
+        <v>56.29319268</v>
       </c>
       <c r="G20">
-        <v>12.71</v>
+        <v>17.32</v>
       </c>
       <c r="H20">
         <v>10</v>
       </c>
       <c r="I20">
-        <v>2.710000000000001</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21">
-        <v>635507</v>
+        <v>634991</v>
       </c>
       <c r="B21">
-        <v>686146</v>
+        <v>635587</v>
       </c>
       <c r="C21">
-        <v>37.87191844</v>
+        <v>38.12652919</v>
       </c>
       <c r="D21">
-        <v>55.75161434</v>
+        <v>56.29319268</v>
       </c>
       <c r="E21">
-        <v>37.86882641</v>
+        <v>38.11702974</v>
       </c>
       <c r="F21">
-        <v>55.75173259</v>
+        <v>56.32555389</v>
       </c>
       <c r="G21">
-        <v>10.65</v>
+        <v>16.02</v>
       </c>
       <c r="H21">
         <v>10</v>
       </c>
       <c r="I21">
-        <v>0.6500000000000004</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22">
-        <v>686146</v>
+        <v>635587</v>
       </c>
       <c r="B22">
-        <v>636073</v>
+        <v>608020</v>
       </c>
       <c r="C22">
-        <v>37.86882641</v>
+        <v>38.11702974</v>
       </c>
       <c r="D22">
-        <v>55.75173259</v>
+        <v>56.32555389</v>
       </c>
       <c r="E22">
-        <v>37.86308907</v>
+        <v>38.14515583</v>
       </c>
       <c r="F22">
-        <v>55.74326235</v>
+        <v>56.36867151</v>
       </c>
       <c r="G22">
-        <v>12.85</v>
+        <v>27.14</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
       <c r="I22">
-        <v>2.85</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23">
-        <v>636073</v>
+        <v>608020</v>
       </c>
       <c r="B23">
-        <v>609499</v>
+        <v>686193</v>
       </c>
       <c r="C23">
-        <v>37.86308907</v>
+        <v>38.14515583</v>
       </c>
       <c r="D23">
-        <v>55.74326235</v>
+        <v>56.36867151</v>
       </c>
       <c r="E23">
-        <v>37.85712837</v>
+        <v>38.24251975</v>
       </c>
       <c r="F23">
-        <v>55.74258351</v>
+        <v>56.34385205</v>
       </c>
       <c r="G23">
-        <v>10.96</v>
+        <v>18.28</v>
       </c>
       <c r="H23">
         <v>10</v>
       </c>
       <c r="I23">
-        <v>0.9600000000000009</v>
+        <v>8.280000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24">
-        <v>609499</v>
+        <v>686193</v>
       </c>
       <c r="B24">
-        <v>683121</v>
+        <v>608022</v>
       </c>
       <c r="C24">
-        <v>37.85712837</v>
+        <v>38.24251975</v>
       </c>
       <c r="D24">
-        <v>55.74258351</v>
+        <v>56.34385205</v>
       </c>
       <c r="E24">
-        <v>37.86025982</v>
+        <v>38.23866566</v>
       </c>
       <c r="F24">
-        <v>55.73958345</v>
+        <v>56.43349028</v>
       </c>
       <c r="G24">
-        <v>11.89</v>
+        <v>28.04</v>
       </c>
       <c r="H24">
         <v>10</v>
       </c>
       <c r="I24">
-        <v>1.890000000000001</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25">
-        <v>683121</v>
+        <v>608022</v>
       </c>
       <c r="B25">
-        <v>648591</v>
+        <v>666824</v>
       </c>
       <c r="C25">
-        <v>37.86025982</v>
+        <v>38.23866566</v>
       </c>
       <c r="D25">
-        <v>55.73958345</v>
+        <v>56.43349028</v>
       </c>
       <c r="E25">
-        <v>37.87420899</v>
+        <v>38.24259859</v>
       </c>
       <c r="F25">
-        <v>55.74570182</v>
+        <v>56.44009041</v>
       </c>
       <c r="G25">
-        <v>12.54</v>
+        <v>14.59</v>
       </c>
       <c r="H25">
         <v>10</v>
       </c>
       <c r="I25">
-        <v>2.539999999999999</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26">
-        <v>648591</v>
+        <v>666824</v>
       </c>
       <c r="B26">
-        <v>609965</v>
+        <v>635590</v>
       </c>
       <c r="C26">
-        <v>37.87420899</v>
+        <v>38.24259859</v>
       </c>
       <c r="D26">
-        <v>55.74570182</v>
+        <v>56.44009041</v>
       </c>
       <c r="E26">
-        <v>37.87856674</v>
+        <v>38.16703654</v>
       </c>
       <c r="F26">
-        <v>55.74304337</v>
+        <v>56.50160255</v>
       </c>
       <c r="G26">
-        <v>11.05</v>
+        <v>33.92</v>
       </c>
       <c r="H26">
         <v>10</v>
       </c>
       <c r="I26">
-        <v>1.050000000000001</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27">
-        <v>609965</v>
+        <v>635590</v>
       </c>
       <c r="B27">
-        <v>623376</v>
+        <v>667813</v>
       </c>
       <c r="C27">
-        <v>37.87856674</v>
+        <v>38.16703654</v>
       </c>
       <c r="D27">
-        <v>55.74304337</v>
+        <v>56.50160255</v>
       </c>
       <c r="E27">
-        <v>37.87940411</v>
+        <v>37.60301689</v>
       </c>
       <c r="F27">
-        <v>55.74494809</v>
+        <v>56.52678113</v>
       </c>
       <c r="G27">
-        <v>11.19</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="H27">
         <v>10</v>
       </c>
       <c r="I27">
-        <v>1.19</v>
+        <v>55.34999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28">
-        <v>623376</v>
+        <v>667813</v>
       </c>
       <c r="B28">
-        <v>628616</v>
+        <v>607585</v>
       </c>
       <c r="C28">
-        <v>37.87940411</v>
+        <v>37.60301689</v>
       </c>
       <c r="D28">
-        <v>55.74494809</v>
+        <v>56.52678113</v>
       </c>
       <c r="E28">
-        <v>37.85271807</v>
+        <v>37.60204899</v>
       </c>
       <c r="F28">
-        <v>55.74674417</v>
+        <v>56.52567308</v>
       </c>
       <c r="G28">
-        <v>14.41</v>
+        <v>10.94</v>
       </c>
       <c r="H28">
         <v>10</v>
       </c>
       <c r="I28">
-        <v>4.41</v>
+        <v>0.9399999999999995</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29">
-        <v>628616</v>
+        <v>607585</v>
       </c>
       <c r="B29">
-        <v>634914</v>
+        <v>619586</v>
       </c>
       <c r="C29">
-        <v>37.85271807</v>
+        <v>37.60204899</v>
       </c>
       <c r="D29">
-        <v>55.74674417</v>
+        <v>56.52567308</v>
       </c>
       <c r="E29">
-        <v>37.85269381</v>
+        <v>37.6448469</v>
       </c>
       <c r="F29">
-        <v>55.75325409</v>
+        <v>56.40458023</v>
       </c>
       <c r="G29">
-        <v>13.87</v>
+        <v>26.19</v>
       </c>
       <c r="H29">
         <v>10</v>
       </c>
       <c r="I29">
-        <v>3.870000000000001</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30">
-        <v>634914</v>
+        <v>619586</v>
       </c>
       <c r="B30">
-        <v>636753</v>
+        <v>619220</v>
       </c>
       <c r="C30">
-        <v>37.85269381</v>
+        <v>37.6448469</v>
       </c>
       <c r="D30">
-        <v>55.75325409</v>
+        <v>56.40458023</v>
       </c>
       <c r="E30">
-        <v>37.85202403</v>
+        <v>37.53989743</v>
       </c>
       <c r="F30">
-        <v>55.75843423</v>
+        <v>56.36435318</v>
       </c>
       <c r="G30">
-        <v>11.22</v>
+        <v>17.91</v>
       </c>
       <c r="H30">
         <v>10</v>
       </c>
       <c r="I30">
-        <v>1.220000000000001</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31">
-        <v>636753</v>
+        <v>619220</v>
       </c>
       <c r="B31">
-        <v>688247</v>
+        <v>693238</v>
       </c>
       <c r="C31">
-        <v>37.85202403</v>
+        <v>37.53989743</v>
       </c>
       <c r="D31">
-        <v>55.75843423</v>
+        <v>56.36435318</v>
       </c>
       <c r="E31">
-        <v>37.85969922</v>
+        <v>37.55202905</v>
       </c>
       <c r="F31">
-        <v>55.75809184</v>
+        <v>56.36859268</v>
       </c>
       <c r="G31">
-        <v>11.8</v>
+        <v>10.22</v>
       </c>
       <c r="H31">
         <v>10</v>
       </c>
       <c r="I31">
-        <v>1.800000000000001</v>
+        <v>0.2200000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32">
-        <v>688247</v>
+        <v>693238</v>
       </c>
       <c r="B32">
-        <v>634934</v>
+        <v>607573</v>
       </c>
       <c r="C32">
-        <v>37.85969922</v>
+        <v>37.55202905</v>
       </c>
       <c r="D32">
-        <v>55.75809184</v>
+        <v>56.36859268</v>
       </c>
       <c r="E32">
-        <v>37.86235767</v>
+        <v>37.54311647</v>
       </c>
       <c r="F32">
-        <v>55.76327296</v>
+        <v>56.36562328</v>
       </c>
       <c r="G32">
-        <v>11.5</v>
+        <v>11.01</v>
       </c>
       <c r="H32">
         <v>10</v>
       </c>
       <c r="I32">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33">
-        <v>634934</v>
+        <v>607573</v>
       </c>
       <c r="B33">
-        <v>627738</v>
+        <v>667152</v>
       </c>
       <c r="C33">
-        <v>37.86235767</v>
+        <v>37.54311647</v>
       </c>
       <c r="D33">
-        <v>55.76327296</v>
+        <v>56.36562328</v>
       </c>
       <c r="E33">
-        <v>37.863146</v>
+        <v>37.53610903</v>
       </c>
       <c r="F33">
-        <v>55.7612408</v>
+        <v>56.37059418</v>
       </c>
       <c r="G33">
-        <v>10.92</v>
+        <v>11.46</v>
       </c>
       <c r="H33">
         <v>10</v>
       </c>
       <c r="I33">
-        <v>0.9199999999999999</v>
+        <v>1.460000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34">
-        <v>627738</v>
+        <v>667152</v>
       </c>
       <c r="B34">
-        <v>636405</v>
+        <v>607572</v>
       </c>
       <c r="C34">
-        <v>37.863146</v>
+        <v>37.53610903</v>
       </c>
       <c r="D34">
-        <v>55.7612408</v>
+        <v>56.37059418</v>
       </c>
       <c r="E34">
-        <v>37.8572291</v>
+        <v>37.53710759</v>
       </c>
       <c r="F34">
-        <v>55.76644382</v>
+        <v>56.3571837</v>
       </c>
       <c r="G34">
-        <v>11.39</v>
+        <v>16.28</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="I34">
-        <v>1.390000000000001</v>
+        <v>6.280000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35">
-        <v>636405</v>
+        <v>607572</v>
       </c>
       <c r="B35">
-        <v>609856</v>
+        <v>622454</v>
       </c>
       <c r="C35">
-        <v>37.8572291</v>
+        <v>37.53710759</v>
       </c>
       <c r="D35">
-        <v>55.76644382</v>
+        <v>56.3571837</v>
       </c>
       <c r="E35">
-        <v>37.84980998</v>
+        <v>37.54033977</v>
       </c>
       <c r="F35">
-        <v>55.7627912</v>
+        <v>56.35411357</v>
       </c>
       <c r="G35">
-        <v>11.85</v>
+        <v>11.32</v>
       </c>
       <c r="H35">
         <v>10</v>
       </c>
       <c r="I35">
-        <v>1.85</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36">
-        <v>609856</v>
+        <v>622454</v>
       </c>
       <c r="B36">
-        <v>641580</v>
+        <v>698960</v>
       </c>
       <c r="C36">
-        <v>37.84980998</v>
+        <v>37.54033977</v>
       </c>
       <c r="D36">
-        <v>55.7627912</v>
+        <v>56.35411357</v>
       </c>
       <c r="E36">
-        <v>37.84968735</v>
+        <v>37.54707567</v>
       </c>
       <c r="F36">
-        <v>55.76967162</v>
+        <v>56.3462521</v>
       </c>
       <c r="G36">
-        <v>12.07</v>
+        <v>11.45</v>
       </c>
       <c r="H36">
         <v>10</v>
       </c>
       <c r="I36">
-        <v>2.07</v>
+        <v>1.449999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37">
-        <v>641580</v>
+        <v>698960</v>
       </c>
       <c r="B37">
-        <v>634955</v>
+        <v>646938</v>
       </c>
       <c r="C37">
-        <v>37.84968735</v>
+        <v>37.54707567</v>
       </c>
       <c r="D37">
-        <v>55.76967162</v>
+        <v>56.3462521</v>
       </c>
       <c r="E37">
-        <v>37.8284592</v>
+        <v>37.54914724</v>
       </c>
       <c r="F37">
-        <v>55.76635185</v>
+        <v>56.33878042</v>
       </c>
       <c r="G37">
-        <v>12.97</v>
+        <v>11.66</v>
       </c>
       <c r="H37">
         <v>10</v>
       </c>
       <c r="I37">
-        <v>2.970000000000001</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38">
-        <v>634955</v>
+        <v>646938</v>
       </c>
       <c r="B38">
-        <v>657936</v>
+        <v>648791</v>
       </c>
       <c r="C38">
-        <v>37.8284592</v>
+        <v>37.54914724</v>
       </c>
       <c r="D38">
-        <v>55.76635185</v>
+        <v>56.33878042</v>
       </c>
       <c r="E38">
-        <v>37.83013661</v>
+        <v>37.53276736</v>
       </c>
       <c r="F38">
-        <v>55.76507299</v>
+        <v>56.34863025</v>
       </c>
       <c r="G38">
-        <v>12.33</v>
+        <v>13.68</v>
       </c>
       <c r="H38">
         <v>10</v>
       </c>
       <c r="I38">
-        <v>2.33</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39">
-        <v>657936</v>
+        <v>648791</v>
       </c>
       <c r="B39">
-        <v>688283</v>
+        <v>687618</v>
       </c>
       <c r="C39">
-        <v>37.83013661</v>
+        <v>37.53276736</v>
       </c>
       <c r="D39">
-        <v>55.76507299</v>
+        <v>56.34863025</v>
       </c>
       <c r="E39">
-        <v>37.83268994</v>
+        <v>37.52963591</v>
       </c>
       <c r="F39">
-        <v>55.75283188</v>
+        <v>56.34905069</v>
       </c>
       <c r="G39">
-        <v>13.82</v>
+        <v>11.62</v>
       </c>
       <c r="H39">
         <v>10</v>
       </c>
       <c r="I39">
-        <v>3.82</v>
+        <v>1.620000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>688283</v>
+        <v>687618</v>
       </c>
       <c r="B40">
-        <v>664165</v>
+        <v>607575</v>
       </c>
       <c r="C40">
-        <v>37.83268994</v>
+        <v>37.52963591</v>
       </c>
       <c r="D40">
-        <v>55.75283188</v>
+        <v>56.34905069</v>
       </c>
       <c r="E40">
-        <v>37.81379615</v>
+        <v>37.51725903</v>
       </c>
       <c r="F40">
-        <v>55.75409322</v>
+        <v>56.34203012</v>
       </c>
       <c r="G40">
-        <v>12.12</v>
+        <v>12.76</v>
       </c>
       <c r="H40">
         <v>10</v>
       </c>
       <c r="I40">
-        <v>2.120000000000001</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41">
-        <v>664165</v>
+        <v>607575</v>
       </c>
       <c r="B41">
-        <v>636095</v>
+        <v>645408</v>
       </c>
       <c r="C41">
-        <v>37.81379615</v>
+        <v>37.51725903</v>
       </c>
       <c r="D41">
-        <v>55.75409322</v>
+        <v>56.34203012</v>
       </c>
       <c r="E41">
-        <v>37.81676592</v>
+        <v>37.54970783</v>
       </c>
       <c r="F41">
-        <v>55.75173155</v>
+        <v>56.356172</v>
       </c>
       <c r="G41">
-        <v>12.03</v>
+        <v>15.64</v>
       </c>
       <c r="H41">
         <v>10</v>
       </c>
       <c r="I41">
-        <v>2.029999999999999</v>
+        <v>5.640000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42">
-        <v>636095</v>
+        <v>645408</v>
       </c>
       <c r="B42">
-        <v>609489</v>
+        <v>667814</v>
       </c>
       <c r="C42">
-        <v>37.81676592</v>
+        <v>37.54970783</v>
       </c>
       <c r="D42">
-        <v>55.75173155</v>
+        <v>56.356172</v>
       </c>
       <c r="E42">
-        <v>37.78871829</v>
+        <v>37.40867883</v>
       </c>
       <c r="F42">
-        <v>55.76382041</v>
+        <v>56.37607311</v>
       </c>
       <c r="G42">
-        <v>12.26</v>
+        <v>22.34</v>
       </c>
       <c r="H42">
         <v>10</v>
       </c>
       <c r="I42">
-        <v>2.26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43">
-        <v>609489</v>
-      </c>
-      <c r="B43">
-        <v>609210</v>
-      </c>
-      <c r="C43">
-        <v>37.78871829</v>
-      </c>
-      <c r="D43">
-        <v>55.76382041</v>
-      </c>
-      <c r="E43">
-        <v>37.79077672</v>
-      </c>
-      <c r="F43">
-        <v>55.75462316</v>
-      </c>
-      <c r="G43">
-        <v>11.6</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-      <c r="I43">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44">
-        <v>609210</v>
-      </c>
-      <c r="B44">
-        <v>688326</v>
-      </c>
-      <c r="C44">
-        <v>37.79077672</v>
-      </c>
-      <c r="D44">
-        <v>55.75462316</v>
-      </c>
-      <c r="E44">
-        <v>37.78416784</v>
-      </c>
-      <c r="F44">
-        <v>55.75363336</v>
-      </c>
-      <c r="G44">
-        <v>11.81</v>
-      </c>
-      <c r="H44">
-        <v>10</v>
-      </c>
-      <c r="I44">
-        <v>1.81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45">
-        <v>688326</v>
-      </c>
-      <c r="B45">
-        <v>682780</v>
-      </c>
-      <c r="C45">
-        <v>37.78416784</v>
-      </c>
-      <c r="D45">
-        <v>55.75363336</v>
-      </c>
-      <c r="E45">
-        <v>37.78075609</v>
-      </c>
-      <c r="F45">
-        <v>55.75203041</v>
-      </c>
-      <c r="G45">
-        <v>10.49</v>
-      </c>
-      <c r="H45">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>0.4900000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46">
-        <v>682780</v>
-      </c>
-      <c r="B46">
-        <v>634647</v>
-      </c>
-      <c r="C46">
-        <v>37.78075609</v>
-      </c>
-      <c r="D46">
-        <v>55.75203041</v>
-      </c>
-      <c r="E46">
-        <v>37.78450945</v>
-      </c>
-      <c r="F46">
-        <v>55.74999387</v>
-      </c>
-      <c r="G46">
-        <v>10.73</v>
-      </c>
-      <c r="H46">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>0.7300000000000004</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47">
-        <v>634647</v>
-      </c>
-      <c r="B47">
-        <v>634822</v>
-      </c>
-      <c r="C47">
-        <v>37.78450945</v>
-      </c>
-      <c r="D47">
-        <v>55.74999387</v>
-      </c>
-      <c r="E47">
-        <v>37.78379995</v>
-      </c>
-      <c r="F47">
-        <v>55.74702009</v>
-      </c>
-      <c r="G47">
-        <v>11.07</v>
-      </c>
-      <c r="H47">
-        <v>10</v>
-      </c>
-      <c r="I47">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48">
-        <v>634822</v>
-      </c>
-      <c r="B48">
-        <v>688352</v>
-      </c>
-      <c r="C48">
-        <v>37.78379995</v>
-      </c>
-      <c r="D48">
-        <v>55.74702009</v>
-      </c>
-      <c r="E48">
-        <v>37.79182784</v>
-      </c>
-      <c r="F48">
-        <v>55.74519378</v>
-      </c>
-      <c r="G48">
-        <v>10.81</v>
-      </c>
-      <c r="H48">
-        <v>10</v>
-      </c>
-      <c r="I48">
-        <v>0.8100000000000005</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49">
-        <v>688352</v>
-      </c>
-      <c r="B49">
-        <v>690892</v>
-      </c>
-      <c r="C49">
-        <v>37.79182784</v>
-      </c>
-      <c r="D49">
-        <v>55.74519378</v>
-      </c>
-      <c r="E49">
-        <v>37.79453884</v>
-      </c>
-      <c r="F49">
-        <v>55.74543028</v>
-      </c>
-      <c r="G49">
-        <v>10.98</v>
-      </c>
-      <c r="H49">
-        <v>10</v>
-      </c>
-      <c r="I49">
-        <v>0.9800000000000004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50">
-        <v>690892</v>
-      </c>
-      <c r="B50">
-        <v>636091</v>
-      </c>
-      <c r="C50">
-        <v>37.79453884</v>
-      </c>
-      <c r="D50">
-        <v>55.74543028</v>
-      </c>
-      <c r="E50">
-        <v>37.78678686</v>
-      </c>
-      <c r="F50">
-        <v>55.74517188</v>
-      </c>
-      <c r="G50">
-        <v>11.59</v>
-      </c>
-      <c r="H50">
-        <v>10</v>
-      </c>
-      <c r="I50">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51">
-        <v>636091</v>
-      </c>
-      <c r="B51">
-        <v>698630</v>
-      </c>
-      <c r="C51">
-        <v>37.78678686</v>
-      </c>
-      <c r="D51">
-        <v>55.74517188</v>
-      </c>
-      <c r="E51">
-        <v>37.77283037</v>
-      </c>
-      <c r="F51">
-        <v>55.75334826</v>
-      </c>
-      <c r="G51">
-        <v>12.93</v>
-      </c>
-      <c r="H51">
-        <v>10</v>
-      </c>
-      <c r="I51">
-        <v>2.93</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52">
-        <v>698630</v>
-      </c>
-      <c r="B52">
-        <v>609284</v>
-      </c>
-      <c r="C52">
-        <v>37.77283037</v>
-      </c>
-      <c r="D52">
-        <v>55.75334826</v>
-      </c>
-      <c r="E52">
-        <v>37.7553191</v>
-      </c>
-      <c r="F52">
-        <v>55.74711206</v>
-      </c>
-      <c r="G52">
-        <v>12.35</v>
-      </c>
-      <c r="H52">
-        <v>10</v>
-      </c>
-      <c r="I52">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53">
-        <v>609284</v>
-      </c>
-      <c r="B53">
-        <v>637556</v>
-      </c>
-      <c r="C53">
-        <v>37.7553191</v>
-      </c>
-      <c r="D53">
-        <v>55.74711206</v>
-      </c>
-      <c r="E53">
-        <v>37.77139679</v>
-      </c>
-      <c r="F53">
-        <v>55.74303023</v>
-      </c>
-      <c r="G53">
-        <v>12.96</v>
-      </c>
-      <c r="H53">
-        <v>10</v>
-      </c>
-      <c r="I53">
-        <v>2.960000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54">
-        <v>637556</v>
-      </c>
-      <c r="B54">
-        <v>638485</v>
-      </c>
-      <c r="C54">
-        <v>37.77139679</v>
-      </c>
-      <c r="D54">
-        <v>55.74303023</v>
-      </c>
-      <c r="E54">
-        <v>37.77658667</v>
-      </c>
-      <c r="F54">
-        <v>55.76075028</v>
-      </c>
-      <c r="G54">
-        <v>14.87</v>
-      </c>
-      <c r="H54">
-        <v>10</v>
-      </c>
-      <c r="I54">
-        <v>4.870000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55">
-        <v>638485</v>
-      </c>
-      <c r="B55">
-        <v>609273</v>
-      </c>
-      <c r="C55">
-        <v>37.77658667</v>
-      </c>
-      <c r="D55">
-        <v>55.76075028</v>
-      </c>
-      <c r="E55">
-        <v>37.78441748</v>
-      </c>
-      <c r="F55">
-        <v>55.76330362</v>
-      </c>
-      <c r="G55">
-        <v>12.56</v>
-      </c>
-      <c r="H55">
-        <v>10</v>
-      </c>
-      <c r="I55">
-        <v>2.56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56">
-        <v>609273</v>
-      </c>
-      <c r="B56">
-        <v>634706</v>
-      </c>
-      <c r="C56">
-        <v>37.78441748</v>
-      </c>
-      <c r="D56">
-        <v>55.76330362</v>
-      </c>
-      <c r="E56">
-        <v>37.78895917</v>
-      </c>
-      <c r="F56">
-        <v>55.75010336</v>
-      </c>
-      <c r="G56">
-        <v>14.01</v>
-      </c>
-      <c r="H56">
-        <v>10</v>
-      </c>
-      <c r="I56">
-        <v>4.01</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57">
-        <v>634706</v>
-      </c>
-      <c r="B57">
-        <v>682235</v>
-      </c>
-      <c r="C57">
-        <v>37.78895917</v>
-      </c>
-      <c r="D57">
-        <v>55.75010336</v>
-      </c>
-      <c r="E57">
-        <v>37.82064591</v>
-      </c>
-      <c r="F57">
-        <v>55.73881263</v>
-      </c>
-      <c r="G57">
-        <v>16.17</v>
-      </c>
-      <c r="H57">
-        <v>10</v>
-      </c>
-      <c r="I57">
-        <v>6.170000000000002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58">
-        <v>682235</v>
-      </c>
-      <c r="B58">
-        <v>634702</v>
-      </c>
-      <c r="C58">
-        <v>37.82064591</v>
-      </c>
-      <c r="D58">
-        <v>55.73881263</v>
-      </c>
-      <c r="E58">
-        <v>37.8265672</v>
-      </c>
-      <c r="F58">
-        <v>55.73537023</v>
-      </c>
-      <c r="G58">
-        <v>12.33</v>
-      </c>
-      <c r="H58">
-        <v>10</v>
-      </c>
-      <c r="I58">
-        <v>2.33</v>
+        <v>12.34</v>
       </c>
     </row>
   </sheetData>
